--- a/musicVis-master/Bug Reports/Bug Reports.xlsx
+++ b/musicVis-master/Bug Reports/Bug Reports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamb\Documents\GitHub\Music-Vis\musicVis-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamb\Documents\GitHub\Music-Vis\musicVis-master\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC9CF00-AFEE-4B85-A65E-E4D6A5EBC5CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D277F83E-9BC1-4C37-B183-7020A6376DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA863988-A299-45A2-94A5-8EFFB4D4E4C3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Bug Reports</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Changed the min(100, vol+0.05) to min(1, vol+0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume goes us and over 100% when press minus </t>
+  </si>
+  <si>
+    <t>when the volume is put to 100% and then the volume minus button is pressed it goes up and then over 100%.this was caused because of ta copy and past error that increased in a min method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus changed to minus </t>
   </si>
 </sst>
 </file>
@@ -93,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +112,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,15 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -153,6 +177,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,16 +622,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B237802-B303-4DC5-9228-BEF9CCF86BE5}">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="91.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" customWidth="1"/>
@@ -619,147 +668,158 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/musicVis-master/Bug Reports/Bug Reports.xlsx
+++ b/musicVis-master/Bug Reports/Bug Reports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamb\Documents\GitHub\Music-Vis\musicVis-master\Bug Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Motlias\Univestiy\Intro to Programming\Music vis bug reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D277F83E-9BC1-4C37-B183-7020A6376DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E7012F-3D4F-4628-AEE4-391BB24A1F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA863988-A299-45A2-94A5-8EFFB4D4E4C3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Bug Reports</t>
   </si>
@@ -78,6 +78,42 @@
   </si>
   <si>
     <t xml:space="preserve">plus changed to minus </t>
+  </si>
+  <si>
+    <t>Text colour same as Volume slider colour</t>
+  </si>
+  <si>
+    <t>the colour of the options changes to be the same as the colour the volume triangle is.</t>
+  </si>
+  <si>
+    <t>V0.4</t>
+  </si>
+  <si>
+    <t>Added fill(255); to the menue function</t>
+  </si>
+  <si>
+    <t>Skip missing track 1</t>
+  </si>
+  <si>
+    <t>V0.3</t>
+  </si>
+  <si>
+    <t>when on track 3 and skipping forward it should take you to track 1 (index 0) but takes you to track 2 (index 1). This was because I had missed the the start logic for the setting of the track number.</t>
+  </si>
+  <si>
+    <t>added sound= playlist[trackNum]; sound.loop();</t>
+  </si>
+  <si>
+    <t>music resuming not restaring</t>
+  </si>
+  <si>
+    <t>when a tarck is skipped to or from it resumes from the point that it was left, instead of starting form the beginning</t>
+  </si>
+  <si>
+    <t>sound.pause() changed to sound.stop()</t>
+  </si>
+  <si>
+    <t>v0.4</t>
   </si>
 </sst>
 </file>
@@ -161,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -176,9 +212,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -196,12 +229,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,15 +310,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>121425</xdr:colOff>
+      <xdr:colOff>159525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>121425</xdr:rowOff>
+      <xdr:rowOff>159525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3162300</xdr:colOff>
+      <xdr:colOff>3200400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1670748</xdr:rowOff>
+      <xdr:rowOff>1708848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -312,8 +347,183 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1921650" y="835800"/>
+          <a:off x="2121675" y="873900"/>
           <a:ext cx="3040875" cy="1549323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1806601</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117B03CD-DF6D-4D51-9F1A-C5BB0B0967C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="3324225"/>
+          <a:ext cx="1597051" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2047874</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1675968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E049F1-3087-406F-9860-D1C9A8A97F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010024" y="3289072"/>
+          <a:ext cx="1571626" cy="1673021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2148308</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1466630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD039DB-F2F8-4E64-B295-7EF5BB9A7A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="5238750"/>
+          <a:ext cx="1805408" cy="1218980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>216588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2202692</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B21F050-9264-4493-B241-B3CCCA0997D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="1055" t="38289" r="-1055" b="-1563"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="6722163"/>
+          <a:ext cx="1945517" cy="831162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -624,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B237802-B303-4DC5-9228-BEF9CCF86BE5}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,158 +878,192 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
+    <row r="6" spans="2:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+    <row r="7" spans="2:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+    <row r="8" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="9"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/musicVis-master/Bug Reports/Bug Reports.xlsx
+++ b/musicVis-master/Bug Reports/Bug Reports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Motlias\Univestiy\Intro to Programming\Music vis bug reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamb\Desktop\GitHub Repositories\Music-Vis\musicVis-master\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E7012F-3D4F-4628-AEE4-391BB24A1F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9EB8F2-F9BC-4EDB-9AC0-7AD85DFC307E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA863988-A299-45A2-94A5-8EFFB4D4E4C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BA863988-A299-45A2-94A5-8EFFB4D4E4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Bug Reports</t>
   </si>
@@ -114,6 +112,21 @@
   </si>
   <si>
     <t>v0.4</t>
+  </si>
+  <si>
+    <t>buzzwire volume glitch</t>
+  </si>
+  <si>
+    <t>when the mouse is too far from the line the volume is set to 0, and when move to another visualser it stays at 0</t>
+  </si>
+  <si>
+    <t>command added to the select vis key press, sound.setVolume(vol);</t>
+  </si>
+  <si>
+    <t>V0.5</t>
+  </si>
+  <si>
+    <t>bug found by Deniz</t>
   </si>
 </sst>
 </file>
@@ -834,27 +847,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B237802-B303-4DC5-9228-BEF9CCF86BE5}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="91.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="91.7265625" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="26" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -877,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
@@ -896,7 +909,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -915,7 +928,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -934,7 +947,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
@@ -953,7 +966,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
@@ -972,16 +985,28 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="D10" s="12"/>
@@ -990,7 +1015,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="12"/>
@@ -999,7 +1024,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="2"/>
       <c r="D12" s="12"/>
@@ -1008,7 +1033,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="2"/>
       <c r="D13" s="12"/>
@@ -1017,7 +1042,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="2"/>
       <c r="D14" s="12"/>
@@ -1026,7 +1051,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
@@ -1035,7 +1060,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
@@ -1044,7 +1069,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
       <c r="C17" s="2"/>
       <c r="D17" s="12"/>
@@ -1053,7 +1078,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="5"/>
@@ -1062,7 +1087,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D19" s="8"/>
     </row>
   </sheetData>
